--- a/Code/Results/Cases/Case_0_89/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_89/res_line/loading_percent.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.244302549738539</v>
+        <v>4.918060118371062</v>
       </c>
       <c r="D2">
-        <v>3.086628336906951</v>
+        <v>4.846278250066219</v>
       </c>
       <c r="E2">
-        <v>10.56451383492873</v>
+        <v>10.4224791904717</v>
       </c>
       <c r="F2">
-        <v>26.31572815642234</v>
+        <v>27.58103282242811</v>
       </c>
       <c r="G2">
-        <v>38.07788750888219</v>
+        <v>35.16215282412897</v>
       </c>
       <c r="H2">
-        <v>11.15682863633423</v>
+        <v>15.31823998826257</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>20.94122252118509</v>
+        <v>13.90623777669959</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>18.89185775530475</v>
+        <v>15.66677161891834</v>
       </c>
       <c r="N2">
-        <v>11.2617659265894</v>
+        <v>17.55335470820703</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.732536005149655</v>
+        <v>4.749848789405855</v>
       </c>
       <c r="D3">
-        <v>3.15165734946769</v>
+        <v>4.861085847570143</v>
       </c>
       <c r="E3">
-        <v>9.992143303301109</v>
+        <v>10.3262835355799</v>
       </c>
       <c r="F3">
-        <v>25.06546815748673</v>
+        <v>27.40769256138062</v>
       </c>
       <c r="G3">
-        <v>36.01290997824554</v>
+        <v>34.77530741027384</v>
       </c>
       <c r="H3">
-        <v>10.89753820564418</v>
+        <v>15.3301704135749</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>19.53186880559247</v>
+        <v>13.41446731855034</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.59951746741985</v>
+        <v>15.38426238701327</v>
       </c>
       <c r="N3">
-        <v>11.53667416974111</v>
+        <v>17.62677967540915</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.401892844618883</v>
+        <v>4.645085964189617</v>
       </c>
       <c r="D4">
-        <v>3.191861406734463</v>
+        <v>4.870542902905159</v>
       </c>
       <c r="E4">
-        <v>9.637879350766211</v>
+        <v>10.27055442675591</v>
       </c>
       <c r="F4">
-        <v>24.3001859669457</v>
+        <v>27.31074594068393</v>
       </c>
       <c r="G4">
-        <v>34.73964369821839</v>
+        <v>34.55080680784014</v>
       </c>
       <c r="H4">
-        <v>10.74826487270999</v>
+        <v>15.34151291110592</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>18.62010882646813</v>
+        <v>13.10631007539394</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.76526795396542</v>
+        <v>15.21250582492889</v>
       </c>
       <c r="N4">
-        <v>11.70764901691585</v>
+        <v>17.67379336881909</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.262970685505865</v>
+        <v>4.602098494846431</v>
       </c>
       <c r="D5">
-        <v>3.208330166230902</v>
+        <v>4.874488994477331</v>
       </c>
       <c r="E5">
-        <v>9.492935391431898</v>
+        <v>10.24870439190044</v>
       </c>
       <c r="F5">
-        <v>23.98927316253351</v>
+        <v>27.27365587642398</v>
       </c>
       <c r="G5">
-        <v>34.21998488035085</v>
+        <v>34.46270145193209</v>
       </c>
       <c r="H5">
-        <v>10.68989705853201</v>
+        <v>15.3471419013325</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>18.23678041395551</v>
+        <v>12.97938073577536</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>16.41493347537597</v>
+        <v>15.1430402625757</v>
       </c>
       <c r="N5">
-        <v>11.77793162171798</v>
+        <v>17.69343915041156</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.239648617826349</v>
+        <v>4.594944943723196</v>
       </c>
       <c r="D6">
-        <v>3.211070392796973</v>
+        <v>4.875149825788967</v>
       </c>
       <c r="E6">
-        <v>9.46883715261206</v>
+        <v>10.24512873593673</v>
       </c>
       <c r="F6">
-        <v>23.93771468764223</v>
+        <v>27.26764387017797</v>
       </c>
       <c r="G6">
-        <v>34.13366668285182</v>
+        <v>34.44827869699716</v>
       </c>
       <c r="H6">
-        <v>10.68035270499915</v>
+        <v>15.34813729417574</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>18.17241467672779</v>
+        <v>12.95822896125779</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>16.35613089818927</v>
+        <v>15.131540225698</v>
       </c>
       <c r="N6">
-        <v>11.78964046971465</v>
+        <v>17.69673080580136</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.400036296350767</v>
+        <v>4.644507312309413</v>
       </c>
       <c r="D7">
-        <v>3.192083144403585</v>
+        <v>4.870595747129096</v>
       </c>
       <c r="E7">
-        <v>9.635926728164938</v>
+        <v>10.27025624070575</v>
       </c>
       <c r="F7">
-        <v>24.29598855823968</v>
+        <v>27.3102359091823</v>
       </c>
       <c r="G7">
-        <v>34.73263778211815</v>
+        <v>34.54960476847898</v>
       </c>
       <c r="H7">
-        <v>10.74746778474416</v>
+        <v>15.34158475385554</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>18.61498695229557</v>
+        <v>13.10460345040279</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.76058536922268</v>
+        <v>15.21156672647668</v>
       </c>
       <c r="N7">
-        <v>11.70859432980117</v>
+        <v>17.67405634310597</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.071219142962741</v>
+        <v>4.8604121719033</v>
       </c>
       <c r="D8">
-        <v>3.109002849015242</v>
+        <v>4.851308397552581</v>
       </c>
       <c r="E8">
-        <v>10.36781532134781</v>
+        <v>10.3886320738168</v>
       </c>
       <c r="F8">
-        <v>25.88433353685051</v>
+        <v>27.51931679162903</v>
       </c>
       <c r="G8">
-        <v>37.36729066888002</v>
+        <v>35.02613141707781</v>
       </c>
       <c r="H8">
-        <v>11.06534409930266</v>
+        <v>15.32151798483817</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>20.46484091026065</v>
+        <v>13.73808311523981</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>18.45463701684425</v>
+        <v>15.5690671195614</v>
       </c>
       <c r="N8">
-        <v>11.35613982973303</v>
+        <v>17.57827211119905</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.259745228224489</v>
+        <v>5.268998447748573</v>
       </c>
       <c r="D9">
-        <v>2.947518532126265</v>
+        <v>4.816362523010491</v>
       </c>
       <c r="E9">
-        <v>11.77671813656085</v>
+        <v>10.6461989714604</v>
       </c>
       <c r="F9">
-        <v>29.00609176934006</v>
+        <v>28.00297431940131</v>
       </c>
       <c r="G9">
-        <v>42.47361602226007</v>
+        <v>36.05887763048881</v>
       </c>
       <c r="H9">
-        <v>11.76894603480227</v>
+        <v>15.31416911072383</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>23.72968461754595</v>
+        <v>14.92286128474466</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>21.45963569435374</v>
+        <v>16.27938745495121</v>
       </c>
       <c r="N9">
-        <v>10.67927246688568</v>
+        <v>17.4056692413071</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>9.058986780312535</v>
+        <v>5.556504302873424</v>
       </c>
       <c r="D10">
-        <v>2.828654180026026</v>
+        <v>4.792412498579704</v>
       </c>
       <c r="E10">
-        <v>12.95549150363252</v>
+        <v>10.84943419672811</v>
       </c>
       <c r="F10">
-        <v>31.29331145818747</v>
+        <v>28.40075469833503</v>
       </c>
       <c r="G10">
-        <v>46.17472074298908</v>
+        <v>36.87026443463502</v>
       </c>
       <c r="H10">
-        <v>12.33687907041</v>
+        <v>15.32842262359443</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>25.91588162038814</v>
+        <v>15.74857206094275</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>23.48386081515027</v>
+        <v>16.80130309770293</v>
       </c>
       <c r="N10">
-        <v>10.18606794344015</v>
+        <v>17.28801746661947</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.40745025815043</v>
+        <v>5.683893119085585</v>
       </c>
       <c r="D11">
-        <v>2.774280259893459</v>
+        <v>4.781885392800195</v>
       </c>
       <c r="E11">
-        <v>13.49780287592673</v>
+        <v>10.94458263588374</v>
       </c>
       <c r="F11">
-        <v>32.33178107780488</v>
+        <v>28.5903227791195</v>
       </c>
       <c r="G11">
-        <v>47.84734381398306</v>
+        <v>37.24915439943913</v>
       </c>
       <c r="H11">
-        <v>12.60686561086808</v>
+        <v>15.33919362078088</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>26.86647003960028</v>
+        <v>16.11279353088346</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>24.36731593061038</v>
+        <v>17.03760952377139</v>
       </c>
       <c r="N11">
-        <v>9.961420459366312</v>
+        <v>17.23645671617937</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>9.537314966879642</v>
+        <v>5.731596766687468</v>
       </c>
       <c r="D12">
-        <v>2.753625621895335</v>
+        <v>4.777951494647026</v>
       </c>
       <c r="E12">
-        <v>13.70098051449092</v>
+        <v>10.98096981676967</v>
       </c>
       <c r="F12">
-        <v>32.72478400150673</v>
+        <v>28.66329017045752</v>
       </c>
       <c r="G12">
-        <v>48.48385268566735</v>
+        <v>37.39389408993371</v>
       </c>
       <c r="H12">
-        <v>12.71083222653888</v>
+        <v>15.34388934263996</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>27.22031761536924</v>
+        <v>16.24895588206696</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>24.69670944185564</v>
+        <v>17.12684226421648</v>
       </c>
       <c r="N12">
-        <v>9.876201783236519</v>
+        <v>17.21721177855758</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.509437868996098</v>
+        <v>5.721347449564375</v>
       </c>
       <c r="D13">
-        <v>2.758077169428576</v>
+        <v>4.778796402065455</v>
       </c>
       <c r="E13">
-        <v>13.65731644064512</v>
+        <v>10.97311783142761</v>
       </c>
       <c r="F13">
-        <v>32.64015299219648</v>
+        <v>28.64752369906279</v>
       </c>
       <c r="G13">
-        <v>48.34342793619844</v>
+        <v>37.36266798835999</v>
       </c>
       <c r="H13">
-        <v>12.68836322350693</v>
+        <v>15.34285059281096</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>27.14437902650187</v>
+        <v>16.21971095229159</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>24.62599397330191</v>
+        <v>17.10763697975711</v>
       </c>
       <c r="N13">
-        <v>9.894563662842737</v>
+        <v>17.22134409562102</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.418175708256983</v>
+        <v>5.687828713414621</v>
       </c>
       <c r="D14">
-        <v>2.772582402519168</v>
+        <v>4.781560699030995</v>
       </c>
       <c r="E14">
-        <v>13.5145610247511</v>
+        <v>10.94756926615807</v>
       </c>
       <c r="F14">
-        <v>32.36411798115541</v>
+        <v>28.5963024954516</v>
       </c>
       <c r="G14">
-        <v>47.89936253905675</v>
+        <v>37.2610377575967</v>
       </c>
       <c r="H14">
-        <v>12.61538398960626</v>
+        <v>15.33956757466522</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>26.89570273881243</v>
+        <v>16.12403161279597</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>24.39451721955034</v>
+        <v>17.04495629879867</v>
       </c>
       <c r="N14">
-        <v>9.954413130625865</v>
+        <v>17.23486782222013</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.362005295752823</v>
+        <v>5.66722645086167</v>
       </c>
       <c r="D15">
-        <v>2.781458260178125</v>
+        <v>4.783260734124763</v>
       </c>
       <c r="E15">
-        <v>13.42684080868542</v>
+        <v>10.9319655289586</v>
       </c>
       <c r="F15">
-        <v>32.19500967317157</v>
+        <v>28.56508023441616</v>
       </c>
       <c r="G15">
-        <v>47.62728521224356</v>
+        <v>37.19894636889136</v>
       </c>
       <c r="H15">
-        <v>12.57090912777795</v>
+        <v>15.33763698510955</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>26.74259056425824</v>
+        <v>16.06519265095537</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>24.25206713581935</v>
+        <v>17.00652720843675</v>
       </c>
       <c r="N15">
-        <v>9.991049750865338</v>
+        <v>17.24318790635256</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>9.035916612781717</v>
+        <v>5.548106607702352</v>
       </c>
       <c r="D16">
-        <v>2.832199780430897</v>
+        <v>4.793107837005041</v>
       </c>
       <c r="E16">
-        <v>12.91973377532121</v>
+        <v>10.84326762346172</v>
       </c>
       <c r="F16">
-        <v>31.22540670555505</v>
+        <v>28.38853455465982</v>
       </c>
       <c r="G16">
-        <v>46.06519924394339</v>
+        <v>36.84568764977335</v>
       </c>
       <c r="H16">
-        <v>12.31947332885953</v>
+        <v>15.32780503660494</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>25.85289091104241</v>
+        <v>15.72452924870034</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>23.42539136144746</v>
+        <v>16.78582959786464</v>
       </c>
       <c r="N16">
-        <v>10.2007344393951</v>
+        <v>17.29142636227819</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.832056879447032</v>
+        <v>5.474124704882811</v>
       </c>
       <c r="D17">
-        <v>2.863235903790038</v>
+        <v>4.799242643361967</v>
       </c>
       <c r="E17">
-        <v>12.60454145363247</v>
+        <v>10.78952286119713</v>
       </c>
       <c r="F17">
-        <v>30.63008017035432</v>
+        <v>28.28239667807765</v>
       </c>
       <c r="G17">
-        <v>45.10415377042064</v>
+        <v>36.63137871840366</v>
       </c>
       <c r="H17">
-        <v>12.16824013917387</v>
+        <v>15.32287201399995</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>25.29597258287136</v>
+        <v>15.51253270365688</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>22.90883098869594</v>
+        <v>16.65008700323837</v>
       </c>
       <c r="N17">
-        <v>10.32922258029688</v>
+        <v>17.3215197231174</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.713374040153187</v>
+        <v>5.431254783392384</v>
       </c>
       <c r="D18">
-        <v>2.881059931323088</v>
+        <v>4.802805872673582</v>
       </c>
       <c r="E18">
-        <v>12.42168594611298</v>
+        <v>10.75886594347618</v>
       </c>
       <c r="F18">
-        <v>30.28746824330398</v>
+        <v>28.22216354039489</v>
       </c>
       <c r="G18">
-        <v>44.55032995852639</v>
+        <v>36.50904381641062</v>
       </c>
       <c r="H18">
-        <v>12.08234549384051</v>
+        <v>15.32043819017195</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>24.97150066898994</v>
+        <v>15.38953126832465</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>22.60818653539015</v>
+        <v>16.57191163578646</v>
       </c>
       <c r="N18">
-        <v>10.40310579089617</v>
+        <v>17.33901318497401</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>8.672942389548995</v>
+        <v>5.416686756687486</v>
       </c>
       <c r="D19">
-        <v>2.887090815231828</v>
+        <v>4.804018284876547</v>
       </c>
       <c r="E19">
-        <v>12.35950005506492</v>
+        <v>10.74853088210772</v>
       </c>
       <c r="F19">
-        <v>30.17143210323915</v>
+        <v>28.2019112217074</v>
       </c>
       <c r="G19">
-        <v>44.36263084320967</v>
+        <v>36.46778742614489</v>
       </c>
       <c r="H19">
-        <v>12.05344888732395</v>
+        <v>15.31968341873235</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>24.86092210701151</v>
+        <v>15.34770584606595</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>22.50578036087752</v>
+        <v>16.54542849518621</v>
       </c>
       <c r="N19">
-        <v>10.42812108538143</v>
+        <v>17.34496792307615</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>8.853905324705432</v>
+        <v>5.482033420955638</v>
       </c>
       <c r="D20">
-        <v>2.859935014383771</v>
+        <v>4.798585999564301</v>
       </c>
       <c r="E20">
-        <v>12.63825492532995</v>
+        <v>10.79521784751737</v>
       </c>
       <c r="F20">
-        <v>30.69347391015333</v>
+        <v>28.29361133531692</v>
       </c>
       <c r="G20">
-        <v>45.20656728055564</v>
+        <v>36.65409707160753</v>
       </c>
       <c r="H20">
-        <v>12.18422592797342</v>
+        <v>15.32335537440123</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>25.35568535270179</v>
+        <v>15.53521141649185</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>22.96418379407388</v>
+        <v>16.66454803707562</v>
       </c>
       <c r="N20">
-        <v>10.31554759036096</v>
+        <v>17.3182971456886</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.445037664452057</v>
+        <v>5.69768886564934</v>
       </c>
       <c r="D21">
-        <v>2.768323780720408</v>
+        <v>4.780747336742659</v>
       </c>
       <c r="E21">
-        <v>13.55654939808852</v>
+        <v>10.95506407396816</v>
       </c>
       <c r="F21">
-        <v>32.44520197855304</v>
+        <v>28.61131579045714</v>
       </c>
       <c r="G21">
-        <v>48.02978196786413</v>
+        <v>37.29085592334903</v>
       </c>
       <c r="H21">
-        <v>12.63677232596469</v>
+        <v>15.34051513092567</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>26.96890940716573</v>
+        <v>16.1521836243185</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>24.46264547456141</v>
+        <v>17.06337466018917</v>
       </c>
       <c r="N21">
-        <v>9.936838876455543</v>
+        <v>17.23088799104361</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>9.819233921341688</v>
+        <v>5.835491480263432</v>
       </c>
       <c r="D22">
-        <v>2.708065267227396</v>
+        <v>4.769394494307705</v>
       </c>
       <c r="E22">
-        <v>14.14408435025289</v>
+        <v>11.06159614359335</v>
       </c>
       <c r="F22">
-        <v>33.58872242975097</v>
+        <v>28.82581580045433</v>
       </c>
       <c r="G22">
-        <v>49.91462067218979</v>
+        <v>37.71430433737811</v>
       </c>
       <c r="H22">
-        <v>12.94265056678303</v>
+        <v>15.35532606282566</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>27.98768148289285</v>
+        <v>16.54510356566198</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>25.41206991434268</v>
+        <v>17.32252659591903</v>
       </c>
       <c r="N22">
-        <v>9.688399394271647</v>
+        <v>17.17539228001872</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9.620600009043176</v>
+        <v>5.76224513090451</v>
       </c>
       <c r="D23">
-        <v>2.740268601152742</v>
+        <v>4.775425878123632</v>
       </c>
       <c r="E23">
-        <v>13.83159211159089</v>
+        <v>11.00455960756241</v>
       </c>
       <c r="F23">
-        <v>32.97848952234644</v>
+        <v>28.71072473928432</v>
       </c>
       <c r="G23">
-        <v>48.90452189748128</v>
+        <v>37.48768309538645</v>
       </c>
       <c r="H23">
-        <v>12.77844964645459</v>
+        <v>15.34709213761772</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>27.44712714912263</v>
+        <v>16.33637418294985</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>24.90800058740507</v>
+        <v>17.18437890836555</v>
       </c>
       <c r="N23">
-        <v>9.821120650476741</v>
+        <v>17.20486271888615</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>8.844032262250494</v>
+        <v>5.478458935698528</v>
       </c>
       <c r="D24">
-        <v>2.861427404246104</v>
+        <v>4.79888275526585</v>
       </c>
       <c r="E24">
-        <v>12.6230182094517</v>
+        <v>10.79264238912371</v>
       </c>
       <c r="F24">
-        <v>30.6648146952421</v>
+        <v>28.28853873322096</v>
       </c>
       <c r="G24">
-        <v>45.1602702105302</v>
+        <v>36.64382337019521</v>
       </c>
       <c r="H24">
-        <v>12.17699548222305</v>
+        <v>15.32313559424926</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>25.32870259313432</v>
+        <v>15.5249618551976</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>22.93917022921023</v>
+        <v>16.65801061764916</v>
       </c>
       <c r="N24">
-        <v>10.32173000271623</v>
+        <v>17.31975347350926</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>7.951502434541589</v>
+        <v>5.160451390741672</v>
       </c>
       <c r="D25">
-        <v>2.991160840023772</v>
+        <v>4.825511363026762</v>
       </c>
       <c r="E25">
-        <v>11.39878494854467</v>
+        <v>10.57394689530474</v>
       </c>
       <c r="F25">
-        <v>28.16219532082705</v>
+        <v>27.86448515103269</v>
       </c>
       <c r="G25">
-        <v>41.10059340358713</v>
+        <v>35.76970001013813</v>
       </c>
       <c r="H25">
-        <v>11.56980587289043</v>
+        <v>15.31271414234511</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>22.88445047307478</v>
+        <v>14.6095723285995</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.67969862200402</v>
+        <v>16.08682285160658</v>
       </c>
       <c r="N25">
-        <v>10.86130270626926</v>
+        <v>17.45074538275109</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_89/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_89/res_line/loading_percent.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.918060118371062</v>
+        <v>7.244302549738592</v>
       </c>
       <c r="D2">
-        <v>4.846278250066219</v>
+        <v>3.086628336906951</v>
       </c>
       <c r="E2">
-        <v>10.4224791904717</v>
+        <v>10.5645138349287</v>
       </c>
       <c r="F2">
-        <v>27.58103282242811</v>
+        <v>26.31572815642238</v>
       </c>
       <c r="G2">
-        <v>35.16215282412897</v>
+        <v>38.07788750888225</v>
       </c>
       <c r="H2">
-        <v>15.31823998826257</v>
+        <v>11.15682863633422</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>13.90623777669959</v>
+        <v>20.94122252118512</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>15.66677161891834</v>
+        <v>18.89185775530478</v>
       </c>
       <c r="N2">
-        <v>17.55335470820703</v>
+        <v>11.2617659265894</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.749848789405855</v>
+        <v>6.732536005149721</v>
       </c>
       <c r="D3">
-        <v>4.861085847570143</v>
+        <v>3.151657349467824</v>
       </c>
       <c r="E3">
-        <v>10.3262835355799</v>
+        <v>9.992143303301088</v>
       </c>
       <c r="F3">
-        <v>27.40769256138062</v>
+        <v>25.06546815748675</v>
       </c>
       <c r="G3">
-        <v>34.77530741027384</v>
+        <v>36.01290997824555</v>
       </c>
       <c r="H3">
-        <v>15.3301704135749</v>
+        <v>10.89753820564419</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>13.41446731855034</v>
+        <v>19.53186880559245</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.38426238701327</v>
+        <v>17.59951746741988</v>
       </c>
       <c r="N3">
-        <v>17.62677967540915</v>
+        <v>11.53667416974114</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.645085964189617</v>
+        <v>6.401892844618875</v>
       </c>
       <c r="D4">
-        <v>4.870542902905159</v>
+        <v>3.191861406734532</v>
       </c>
       <c r="E4">
-        <v>10.27055442675591</v>
+        <v>9.637879350766246</v>
       </c>
       <c r="F4">
-        <v>27.31074594068393</v>
+        <v>24.30018596694576</v>
       </c>
       <c r="G4">
-        <v>34.55080680784014</v>
+        <v>34.73964369821847</v>
       </c>
       <c r="H4">
-        <v>15.34151291110592</v>
+        <v>10.74826487271002</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>13.10631007539394</v>
+        <v>18.6201088264681</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15.21250582492889</v>
+        <v>16.76526795396535</v>
       </c>
       <c r="N4">
-        <v>17.67379336881909</v>
+        <v>11.70764901691589</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.602098494846431</v>
+        <v>6.262970685505814</v>
       </c>
       <c r="D5">
-        <v>4.874488994477331</v>
+        <v>3.208330166230835</v>
       </c>
       <c r="E5">
-        <v>10.24870439190044</v>
+        <v>9.492935391431853</v>
       </c>
       <c r="F5">
-        <v>27.27365587642398</v>
+        <v>23.98927316253362</v>
       </c>
       <c r="G5">
-        <v>34.46270145193209</v>
+        <v>34.21998488035093</v>
       </c>
       <c r="H5">
-        <v>15.3471419013325</v>
+        <v>10.68989705853206</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>12.97938073577536</v>
+        <v>18.23678041395545</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.1430402625757</v>
+        <v>16.41493347537595</v>
       </c>
       <c r="N5">
-        <v>17.69343915041156</v>
+        <v>11.77793162171798</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.594944943723196</v>
+        <v>6.239648617826393</v>
       </c>
       <c r="D6">
-        <v>4.875149825788967</v>
+        <v>3.211070392797039</v>
       </c>
       <c r="E6">
-        <v>10.24512873593673</v>
+        <v>9.468837152612034</v>
       </c>
       <c r="F6">
-        <v>27.26764387017797</v>
+        <v>23.93771468764215</v>
       </c>
       <c r="G6">
-        <v>34.44827869699716</v>
+        <v>34.13366668285172</v>
       </c>
       <c r="H6">
-        <v>15.34813729417574</v>
+        <v>10.68035270499915</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>12.95822896125779</v>
+        <v>18.17241467672781</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.131540225698</v>
+        <v>16.3561308981893</v>
       </c>
       <c r="N6">
-        <v>17.69673080580136</v>
+        <v>11.78964046971459</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.644507312309413</v>
+        <v>6.400036296350642</v>
       </c>
       <c r="D7">
-        <v>4.870595747129096</v>
+        <v>3.192083144403715</v>
       </c>
       <c r="E7">
-        <v>10.27025624070575</v>
+        <v>9.635926728164939</v>
       </c>
       <c r="F7">
-        <v>27.3102359091823</v>
+        <v>24.29598855823972</v>
       </c>
       <c r="G7">
-        <v>34.54960476847898</v>
+        <v>34.73263778211826</v>
       </c>
       <c r="H7">
-        <v>15.34158475385554</v>
+        <v>10.74746778474418</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>13.10460345040279</v>
+        <v>18.61498695229556</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15.21156672647668</v>
+        <v>16.76058536922265</v>
       </c>
       <c r="N7">
-        <v>17.67405634310597</v>
+        <v>11.70859432980117</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.8604121719033</v>
+        <v>7.071219142962831</v>
       </c>
       <c r="D8">
-        <v>4.851308397552581</v>
+        <v>3.109002849015442</v>
       </c>
       <c r="E8">
-        <v>10.3886320738168</v>
+        <v>10.36781532134783</v>
       </c>
       <c r="F8">
-        <v>27.51931679162903</v>
+        <v>25.88433353685042</v>
       </c>
       <c r="G8">
-        <v>35.02613141707781</v>
+        <v>37.36729066888002</v>
       </c>
       <c r="H8">
-        <v>15.32151798483817</v>
+        <v>11.06534409930262</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>13.73808311523981</v>
+        <v>20.46484091026077</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.5690671195614</v>
+        <v>18.45463701684435</v>
       </c>
       <c r="N8">
-        <v>17.57827211119905</v>
+        <v>11.35613982973296</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.268998447748573</v>
+        <v>8.259745228224432</v>
       </c>
       <c r="D9">
-        <v>4.816362523010491</v>
+        <v>2.947518532126465</v>
       </c>
       <c r="E9">
-        <v>10.6461989714604</v>
+        <v>11.77671813656087</v>
       </c>
       <c r="F9">
-        <v>28.00297431940131</v>
+        <v>29.00609176934004</v>
       </c>
       <c r="G9">
-        <v>36.05887763048881</v>
+        <v>42.47361602225997</v>
       </c>
       <c r="H9">
-        <v>15.31416911072383</v>
+        <v>11.76894603480227</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>14.92286128474466</v>
+        <v>23.72968461754589</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.27938745495121</v>
+        <v>21.45963569435371</v>
       </c>
       <c r="N9">
-        <v>17.4056692413071</v>
+        <v>10.67927246688581</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.556504302873424</v>
+        <v>9.058986780312456</v>
       </c>
       <c r="D10">
-        <v>4.792412498579704</v>
+        <v>2.828654180026093</v>
       </c>
       <c r="E10">
-        <v>10.84943419672811</v>
+        <v>12.95549150363254</v>
       </c>
       <c r="F10">
-        <v>28.40075469833503</v>
+        <v>31.29331145818744</v>
       </c>
       <c r="G10">
-        <v>36.87026443463502</v>
+        <v>46.17472074298907</v>
       </c>
       <c r="H10">
-        <v>15.32842262359443</v>
+        <v>12.33687907040996</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>15.74857206094275</v>
+        <v>25.91588162038823</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>16.80130309770293</v>
+        <v>23.48386081515032</v>
       </c>
       <c r="N10">
-        <v>17.28801746661947</v>
+        <v>10.18606794344008</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.683893119085585</v>
+        <v>9.407450258150488</v>
       </c>
       <c r="D11">
-        <v>4.781885392800195</v>
+        <v>2.774280259893656</v>
       </c>
       <c r="E11">
-        <v>10.94458263588374</v>
+        <v>13.49780287592667</v>
       </c>
       <c r="F11">
-        <v>28.5903227791195</v>
+        <v>32.33178107780489</v>
       </c>
       <c r="G11">
-        <v>37.24915439943913</v>
+        <v>47.84734381398311</v>
       </c>
       <c r="H11">
-        <v>15.33919362078088</v>
+        <v>12.60686561086806</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>16.11279353088346</v>
+        <v>26.8664700396003</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>17.03760952377139</v>
+        <v>24.36731593061036</v>
       </c>
       <c r="N11">
-        <v>17.23645671617937</v>
+        <v>9.961420459366243</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.731596766687468</v>
+        <v>9.537314966879547</v>
       </c>
       <c r="D12">
-        <v>4.777951494647026</v>
+        <v>2.75362562189533</v>
       </c>
       <c r="E12">
-        <v>10.98096981676967</v>
+        <v>13.70098051449093</v>
       </c>
       <c r="F12">
-        <v>28.66329017045752</v>
+        <v>32.72478400150671</v>
       </c>
       <c r="G12">
-        <v>37.39389408993371</v>
+        <v>48.48385268566732</v>
       </c>
       <c r="H12">
-        <v>15.34388934263996</v>
+        <v>12.71083222653891</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>16.24895588206696</v>
+        <v>27.22031761536918</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>17.12684226421648</v>
+        <v>24.6967094418556</v>
       </c>
       <c r="N12">
-        <v>17.21721177855758</v>
+        <v>9.876201783236587</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.721347449564375</v>
+        <v>9.509437868996171</v>
       </c>
       <c r="D13">
-        <v>4.778796402065455</v>
+        <v>2.758077169428512</v>
       </c>
       <c r="E13">
-        <v>10.97311783142761</v>
+        <v>13.65731644064513</v>
       </c>
       <c r="F13">
-        <v>28.64752369906279</v>
+        <v>32.64015299219651</v>
       </c>
       <c r="G13">
-        <v>37.36266798835999</v>
+        <v>48.34342793619855</v>
       </c>
       <c r="H13">
-        <v>15.34285059281096</v>
+        <v>12.68836322350692</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>16.21971095229159</v>
+        <v>27.14437902650194</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>17.10763697975711</v>
+        <v>24.62599397330196</v>
       </c>
       <c r="N13">
-        <v>17.22134409562102</v>
+        <v>9.894563662842707</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.687828713414621</v>
+        <v>9.418175708257074</v>
       </c>
       <c r="D14">
-        <v>4.781560699030995</v>
+        <v>2.772582402519168</v>
       </c>
       <c r="E14">
-        <v>10.94756926615807</v>
+        <v>13.51456102475109</v>
       </c>
       <c r="F14">
-        <v>28.5963024954516</v>
+        <v>32.36411798115545</v>
       </c>
       <c r="G14">
-        <v>37.2610377575967</v>
+        <v>47.8993625390568</v>
       </c>
       <c r="H14">
-        <v>15.33956757466522</v>
+        <v>12.61538398960631</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>16.12403161279597</v>
+        <v>26.89570273881243</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>17.04495629879867</v>
+        <v>24.39451721955034</v>
       </c>
       <c r="N14">
-        <v>17.23486782222013</v>
+        <v>9.954413130625865</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.66722645086167</v>
+        <v>9.362005295752907</v>
       </c>
       <c r="D15">
-        <v>4.783260734124763</v>
+        <v>2.781458260178125</v>
       </c>
       <c r="E15">
-        <v>10.9319655289586</v>
+        <v>13.42684080868537</v>
       </c>
       <c r="F15">
-        <v>28.56508023441616</v>
+        <v>32.19500967317157</v>
       </c>
       <c r="G15">
-        <v>37.19894636889136</v>
+        <v>47.6272852122436</v>
       </c>
       <c r="H15">
-        <v>15.33763698510955</v>
+        <v>12.57090912777796</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>16.06519265095537</v>
+        <v>26.74259056425829</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>17.00652720843675</v>
+        <v>24.25206713581933</v>
       </c>
       <c r="N15">
-        <v>17.24318790635256</v>
+        <v>9.991049750865303</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.548106607702352</v>
+        <v>9.035916612781703</v>
       </c>
       <c r="D16">
-        <v>4.793107837005041</v>
+        <v>2.832199780430834</v>
       </c>
       <c r="E16">
-        <v>10.84326762346172</v>
+        <v>12.91973377532118</v>
       </c>
       <c r="F16">
-        <v>28.38853455465982</v>
+        <v>31.22540670555512</v>
       </c>
       <c r="G16">
-        <v>36.84568764977335</v>
+        <v>46.06519924394354</v>
       </c>
       <c r="H16">
-        <v>15.32780503660494</v>
+        <v>12.3194733288595</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>15.72452924870034</v>
+        <v>25.8528909110425</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>16.78582959786464</v>
+        <v>23.42539136144751</v>
       </c>
       <c r="N16">
-        <v>17.29142636227819</v>
+        <v>10.20073443939504</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.474124704882811</v>
+        <v>8.832056879447089</v>
       </c>
       <c r="D17">
-        <v>4.799242643361967</v>
+        <v>2.863235903790039</v>
       </c>
       <c r="E17">
-        <v>10.78952286119713</v>
+        <v>12.60454145363244</v>
       </c>
       <c r="F17">
-        <v>28.28239667807765</v>
+        <v>30.63008017035433</v>
       </c>
       <c r="G17">
-        <v>36.63137871840366</v>
+        <v>45.10415377042072</v>
       </c>
       <c r="H17">
-        <v>15.32287201399995</v>
+        <v>12.16824013917387</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>15.51253270365688</v>
+        <v>25.29597258287141</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>16.65008700323837</v>
+        <v>22.90883098869596</v>
       </c>
       <c r="N17">
-        <v>17.3215197231174</v>
+        <v>10.32922258029675</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.431254783392384</v>
+        <v>8.713374040153134</v>
       </c>
       <c r="D18">
-        <v>4.802805872673582</v>
+        <v>2.881059931323218</v>
       </c>
       <c r="E18">
-        <v>10.75886594347618</v>
+        <v>12.42168594611293</v>
       </c>
       <c r="F18">
-        <v>28.22216354039489</v>
+        <v>30.28746824330393</v>
       </c>
       <c r="G18">
-        <v>36.50904381641062</v>
+        <v>44.55032995852634</v>
       </c>
       <c r="H18">
-        <v>15.32043819017195</v>
+        <v>12.08234549384051</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>15.38953126832465</v>
+        <v>24.97150066898997</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>16.57191163578646</v>
+        <v>22.60818653539015</v>
       </c>
       <c r="N18">
-        <v>17.33901318497401</v>
+        <v>10.40310579089617</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.416686756687486</v>
+        <v>8.672942389549027</v>
       </c>
       <c r="D19">
-        <v>4.804018284876547</v>
+        <v>2.887090815231894</v>
       </c>
       <c r="E19">
-        <v>10.74853088210772</v>
+        <v>12.35950005506492</v>
       </c>
       <c r="F19">
-        <v>28.2019112217074</v>
+        <v>30.17143210323914</v>
       </c>
       <c r="G19">
-        <v>36.46778742614489</v>
+        <v>44.36263084320962</v>
       </c>
       <c r="H19">
-        <v>15.31968341873235</v>
+        <v>12.05344888732395</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>15.34770584606595</v>
+        <v>24.86092210701151</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>16.54542849518621</v>
+        <v>22.50578036087749</v>
       </c>
       <c r="N19">
-        <v>17.34496792307615</v>
+        <v>10.42812108538143</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.482033420955638</v>
+        <v>8.853905324705439</v>
       </c>
       <c r="D20">
-        <v>4.798585999564301</v>
+        <v>2.859935014383703</v>
       </c>
       <c r="E20">
-        <v>10.79521784751737</v>
+        <v>12.63825492532997</v>
       </c>
       <c r="F20">
-        <v>28.29361133531692</v>
+        <v>30.6934739101533</v>
       </c>
       <c r="G20">
-        <v>36.65409707160753</v>
+        <v>45.20656728055557</v>
       </c>
       <c r="H20">
-        <v>15.32335537440123</v>
+        <v>12.18422592797342</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>15.53521141649185</v>
+        <v>25.35568535270183</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>16.66454803707562</v>
+        <v>22.96418379407389</v>
       </c>
       <c r="N20">
-        <v>17.3182971456886</v>
+        <v>10.31554759036099</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.69768886564934</v>
+        <v>9.445037664452126</v>
       </c>
       <c r="D21">
-        <v>4.780747336742659</v>
+        <v>2.76832378072034</v>
       </c>
       <c r="E21">
-        <v>10.95506407396816</v>
+        <v>13.55654939808856</v>
       </c>
       <c r="F21">
-        <v>28.61131579045714</v>
+        <v>32.44520197855307</v>
       </c>
       <c r="G21">
-        <v>37.29085592334903</v>
+        <v>48.0297819678642</v>
       </c>
       <c r="H21">
-        <v>15.34051513092567</v>
+        <v>12.63677232596467</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>16.1521836243185</v>
+        <v>26.96890940716578</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>17.06337466018917</v>
+        <v>24.46264547456147</v>
       </c>
       <c r="N21">
-        <v>17.23088799104361</v>
+        <v>9.936838876455511</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5.835491480263432</v>
+        <v>9.819233921341635</v>
       </c>
       <c r="D22">
-        <v>4.769394494307705</v>
+        <v>2.708065267227527</v>
       </c>
       <c r="E22">
-        <v>11.06159614359335</v>
+        <v>14.14408435025293</v>
       </c>
       <c r="F22">
-        <v>28.82581580045433</v>
+        <v>33.58872242975093</v>
       </c>
       <c r="G22">
-        <v>37.71430433737811</v>
+        <v>49.91462067218965</v>
       </c>
       <c r="H22">
-        <v>15.35532606282566</v>
+        <v>12.94265056678306</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>16.54510356566198</v>
+        <v>27.98768148289273</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>17.32252659591903</v>
+        <v>25.41206991434263</v>
       </c>
       <c r="N22">
-        <v>17.17539228001872</v>
+        <v>9.688399394271682</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.76224513090451</v>
+        <v>9.620600009043187</v>
       </c>
       <c r="D23">
-        <v>4.775425878123632</v>
+        <v>2.740268601152683</v>
       </c>
       <c r="E23">
-        <v>11.00455960756241</v>
+        <v>13.83159211159087</v>
       </c>
       <c r="F23">
-        <v>28.71072473928432</v>
+        <v>32.97848952234647</v>
       </c>
       <c r="G23">
-        <v>37.48768309538645</v>
+        <v>48.90452189748126</v>
       </c>
       <c r="H23">
-        <v>15.34709213761772</v>
+        <v>12.7784496464546</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>16.33637418294985</v>
+        <v>27.44712714912261</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>17.18437890836555</v>
+        <v>24.90800058740505</v>
       </c>
       <c r="N23">
-        <v>17.20486271888615</v>
+        <v>9.821120650476773</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.478458935698528</v>
+        <v>8.844032262250479</v>
       </c>
       <c r="D24">
-        <v>4.79888275526585</v>
+        <v>2.861427404246104</v>
       </c>
       <c r="E24">
-        <v>10.79264238912371</v>
+        <v>12.62301820945176</v>
       </c>
       <c r="F24">
-        <v>28.28853873322096</v>
+        <v>30.66481469524207</v>
       </c>
       <c r="G24">
-        <v>36.64382337019521</v>
+        <v>45.16027021053019</v>
       </c>
       <c r="H24">
-        <v>15.32313559424926</v>
+        <v>12.17699548222302</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>15.5249618551976</v>
+        <v>25.3287025931343</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>16.65801061764916</v>
+        <v>22.93917022921027</v>
       </c>
       <c r="N24">
-        <v>17.31975347350926</v>
+        <v>10.3217300027162</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.160451390741672</v>
+        <v>7.951502434541618</v>
       </c>
       <c r="D25">
-        <v>4.825511363026762</v>
+        <v>2.991160840023895</v>
       </c>
       <c r="E25">
-        <v>10.57394689530474</v>
+        <v>11.39878494854466</v>
       </c>
       <c r="F25">
-        <v>27.86448515103269</v>
+        <v>28.16219532082705</v>
       </c>
       <c r="G25">
-        <v>35.76970001013813</v>
+        <v>41.10059340358713</v>
       </c>
       <c r="H25">
-        <v>15.31271414234511</v>
+        <v>11.56980587289043</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>14.6095723285995</v>
+        <v>22.88445047307474</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>16.08682285160658</v>
+        <v>20.679698622004</v>
       </c>
       <c r="N25">
-        <v>17.45074538275109</v>
+        <v>10.86130270626936</v>
       </c>
       <c r="O25">
         <v>0</v>
